--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="175">
   <si>
     <t>JOB TITLE</t>
   </si>
@@ -32,246 +32,545 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Scheduling Assistant - 3 Month Contract</t>
-  </si>
-  <si>
-    <t>Vaco Lannick</t>
-  </si>
-  <si>
-    <t>Burlington, ON</t>
-  </si>
-  <si>
-    <t>$24 an hour
-Fixed term contract</t>
+    <t>Test Automation Engineer</t>
+  </si>
+  <si>
+    <t>TELUS Agriculture &amp; Consumer Goods</t>
+  </si>
+  <si>
+    <t>Remote in Toronto, ON</t>
+  </si>
+  <si>
+    <t>Full-time</t>
   </si>
   <si>
     <t>Posted 8 days ago</t>
   </si>
   <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DhEKUvdCKx0uHayhhGdArhclzBPbbmRYgRAr6kXNDNtawBcTMYYANyCqyuXaJhD4WWDcTfspdK_rRtlXHIa0e2FO4miSUIy39hod3kslTu4Q_jwXqhSVXD1RG-9fYZMrAez98GnoPnrSNORuvkKcULu-gt4dPzMQyTOvngxD1xfTdd1K4brhAQpoIv6yBX-ChHx5HnoBOMdUhEM5nl4reGxRyGgboSuGI37dgp1Dw81208q7XXFGOSSYcXu7KcPbey2fpPZKn94otGlTLh0-hOYCgYLlN5hHHTYRnAyRTih3m0S91QHr_fN5WiWZv3MG_ADFfQJ-hjZei35zlurrh291Msm9l173MY3HjWNfqw7xRqfOkU7na0UGfqRgox2jvocsSIC8e0K3rtLyDfuTUT3YC_hKTXjY3Pf9HqA1_BMt24Z23SqCekJr41DSIx567x5hAjrSoT3fs82a0LmudnnIdKRRqviseKUoDsqwfERHWOQlwuGUjhKumzbd13uzM29yiEUM_0jT5p3WAzI8kr0InqDvj8XqWb-Sy-W-CgvwqvXGjJUYHnOXQR8S3ZfJ_xQCWUI0NuNGvdnXmD8WnB7TI0usLtDHk=&amp;xkcb=SoDE-_M3OgnRXxQSFx0LbzkdCdPP&amp;p=0&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>IT Business Analyst-ERP</t>
-  </si>
-  <si>
-    <t>Emergitel</t>
-  </si>
-  <si>
-    <t>Hybrid remote in Mississauga, ON</t>
-  </si>
-  <si>
-    <t>Permanent</t>
+    <t>https://ca.indeed.com/rc/clk?jk=2fbcbb57627e46aa&amp;fccid=f3c9b32766a4168e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Automation Engineer</t>
+  </si>
+  <si>
+    <t>Zenith Algorithms</t>
+  </si>
+  <si>
+    <t>Toronto, ON</t>
+  </si>
+  <si>
+    <t>$45–$50 an hour
+Full-time
+Monday to Friday
++1</t>
   </si>
   <si>
     <t>Employer Active 3 days ago</t>
   </si>
   <si>
-    <t>https://ca.indeed.com/company/EmergiTel/jobs/IT-Analyst-eb39a0881cb0a463?fccid=1f664b308b4fe32b&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Manufacturing/Production Operations Manager $125-130K/yr</t>
-  </si>
-  <si>
-    <t>Breakaway Staffing</t>
-  </si>
-  <si>
-    <t>Etobicoke, ON</t>
-  </si>
-  <si>
-    <t>$125,000–$130,000 a year</t>
-  </si>
-  <si>
-    <t>Posted 6 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0C98fIdvCyV_70TotzLR_2z-4EEWH1MLNSaw7BbhrZx4DbMRXZR_uoJ3Sl5IIN0NAXHyK-Gjz0f8RdkXAkH5sDQErTn3obtdJwmQ38i9ed1gAVaJVnOsvCEhG98MmNuIJNRJhrP5iZcunFPYBnI18HBiUyEgsgrAETw3zwA0GCkOZGQ75z02gl2UYqnMxL0dlVDFybeGOofhXUNvc7oTXq0FXje7yEWcdkQDv1iC024Q0bJ4HMkQERHR-4UYyjNwBR0aGNPGSf9LglHcIv5TeTAgVx5IwiLuyzJxVxwlC4TQ_j42Pb7uIoK-RfjgDKvkumuRuTNJ0d8oBWGMKi6DVDC0pVnxfKllQJQsjDjhrlRMvgcYCCMswaGMKNShn11UvifrOTRqOJuZ-31wEgw_Pp5u9QX6q95uRHNAE0tYE39YG_X_TEIwFQuUszapviHiOiovFn6wPNBfD44cyW5wkuwE8OQlWnAHpFQCye1H6wiSSh3o_ikB_qQraNpWKlsPcVWavpJJlHl_u10LfCtz_C9mH2PUMKBUOneSIP3bDxkfbRJC9B8wtE4CB_pPrPd8xc=&amp;xkcb=SoDt-_M3OgnRXxQSFx0JbzkdCdPP&amp;p=2&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>ERP Systems Analyst</t>
-  </si>
-  <si>
-    <t>Upper Canada Forest Products</t>
-  </si>
-  <si>
-    <t>Mississauga, ON</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Posted 2 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/rc/clk?jk=b04bbe0fd4dd3a34&amp;fccid=439cc0a74ca616be&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Warehouse Associate</t>
-  </si>
-  <si>
-    <t>Total Tabletop Plus</t>
-  </si>
-  <si>
-    <t>$21.50–$23.80 an hour
+    <t>https://ca.indeed.com/company/Zenith-Algorithms/jobs/Automation-Engineer-0b2c322d46fd6f42?fccid=31aeb702b95c4556&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Automation Engineer - LATAM</t>
+  </si>
+  <si>
+    <t>ISG Search Inc</t>
+  </si>
+  <si>
+    <t>Posted 10 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CngyYFrWM1hC8NjdejxldHdaRKqwZKfE1iN0ynAC8fxYOq2FCBOwctZyEvhqUJ2ODKlygc6RWpyMTDQrucG3a3Q-Yfbpl29RPHZLhViXrGrNQ8T_Xtw1TRnlHwflBfp8Zf9NebSG1XDRJhOUVb5u61DE1GTupCle0BMxUUYw8iqv205xyJn-1xWV8SH9srFbjbbiiXU24-xs5Ms6XIdM5KeJc2MRvtbwOFrORK6rgsdIwOXvC0Ed8Mr1R4QOZmRHimdEf5TKBMPuP1t1AFSVpO3hhZ67_tydE64Oc7eqIDWw-9xiF1lCS8j1bM1UekEAVQ7QI0nAwsE59uBZ47UH7OleavyQqgyL9Y8wW4-ScxOLI3qDKY_Vd8_UBRltWRLWNBSFzys52r9GOHV6cmx9w0GFdXLzANtLRnNK0i8KgRkgLqqTwobSVURRakxMQcjNFl42JgiwLkPFDBNsQF7di0GXUaNZ96h0tRHhp48GT6qrplybPuBAuhhLieWwnnogMpNTaCquK0r2DZ-RItmb9-vnqX4FdafMGrH2ZZYbczk-1JMAOfvdNaltfjgowa8o25VeFc4y_ZbBekaNzxaDTN&amp;xkcb=SoCx-_M3OjSX_6wSIB0JbzkdCdPP&amp;p=2&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Posted 9 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CngyYFrWM1hC8NjdejxldHdaRKqwZKfE1iN0ynAC8fxYOq2FCBOwctZyEvhqUJ2ODs0d2In69g2jj5hW6sWQx-uB4cZoUOcyj5btSg4pM3lHiFNLY2G5YLCljxDt0v6Jr_e8gmX7Qlwlyi3Jtwt57ABFIbUDdiPKN-2EpVOPGsNG_O0ARVQadyLxHg_jiArI-FipFp6BnFnYQuhFopPiFWyagEWCU9VkL5vmLEmBYHArA1Jto2IJRt2gAfNpXxfG98GwVmAWP1vfUg05qjU-wuFCZ2XPXplFuWtsoCcEZPWjyDOUN9K7qK6tlO4kdK-mVfPNDo1X_B6M1fe6ZiWObC_tsl6XK9azHvq1esGAY_vxaT20rdJ5GgxTtMP6IVp_n5x5tJWtpsThpGviyO-JpjdF_Ff5wBc20eII3Ml1LexAMyD5gD7fnVNqgZy_QqgFwYeM5biCXYlPC6UK_O69PoSqHU5g9aDREfumui958IyfKwnS_-zMR7LF74A1cowRC_v0SM3LVUrj86iW6767cqMsB7lQflnUuFGhTgdgHKmdvHm1acn63vaUXepD_kbOa6Bl0vim572C1PDIgdb3ZY&amp;xkcb=SoAF-_M3OjSX_6wSIB0IbzkdCdPP&amp;p=3&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>AFA Systems</t>
+  </si>
+  <si>
+    <t>Brampton, ON</t>
+  </si>
+  <si>
+    <t>From $40 an hour
 Full-time
 Monday to Friday
 +2</t>
   </si>
   <si>
-    <t>Employer Active 2 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/company/Total-Tabletop-Plus/jobs/Warehouse-Associate-81057d4208d6c1d8?fccid=08660600dfd8da76&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Warehouse Coordinator - Evening Shift Only (Full Time)</t>
-  </si>
-  <si>
-    <t>ePac Flexible Packaging</t>
+    <t>Employer Active 4 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BsWbJLPj0R4-yohHzgf7wkPF1-kH72aBmL79Oq0cNm9wywef4zJ24YzJPtyJPjbZOX5uTEofI0nABTyybbM1GmtAiuMhymYUD5MxRZqX18KykOi-LdnRN0Q2sIDeK0rOABahU9NxZ-90TlUWYOHbpXGO3EXs-t-yXmEU2a1ew7zoQeoFj2K2lJ8e6Bkf9w_q_t4QnKYHgtSdeRHasSXRLiKD9i06dl3Q4m2cYhvrpNKL3Z2C8V0DM1jyDOgbxAulm_2RqkTen8iSJeDOFN4pP_vABaRGEY9-xeFY0_EXARSuD8mZygGa-LBe-zCZQZnIdd72YjBmhhnzZjGQsnOU8IQ2vu5UVFGhx2wWtphiBc5gLxhCxGqKnu2ydYb5KZM2br78SRggpwxKhpBjj3juFrFO78SZDEYJ9mI_uSt3ZoCJbDxkIVQx-9zxF6GVIKih70XeM1iDjrjb_LLIkshpCX7qmx2PyHJaZnN6v3MrUOBuhYiCdwet8IzmShVmFXd_4yNjvG_vpwu7bebH6-0czILSkeB2_ZXYkjpE5bP3aOIg==&amp;xkcb=SoCL-_M3OjSX_6wSIB0PbzkdCdPP&amp;p=4&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Quality Assurance Test Automation Engineer</t>
+  </si>
+  <si>
+    <t>Northbridge Financial Corporation</t>
   </si>
   <si>
     <t>Full-time
-10 hour shift
 +1</t>
   </si>
   <si>
-    <t>https://ca.indeed.com/rc/clk?jk=3b426416d8bac777&amp;fccid=96795a8f5c7d564e&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Administrative Assistant</t>
-  </si>
-  <si>
-    <t>Kal-Polymers</t>
+    <t>Posted 3 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=71217f3b40b2989e&amp;fccid=cfaf7b3d4f299f3a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>#8960 - Test Automation Engineer</t>
+  </si>
+  <si>
+    <t>Qualitest</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=fa3c5de1024c3f37&amp;fccid=3d13714d09637170&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer</t>
+  </si>
+  <si>
+    <t>Hanley Wood Media Inc</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=2d9a1d74276fa833&amp;fccid=b0babe4f6c322556&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Entry-level robotics engineer</t>
+  </si>
+  <si>
+    <t>BH Frontier Solutions Inc.</t>
+  </si>
+  <si>
+    <t>Greater Toronto Area, ON</t>
+  </si>
+  <si>
+    <t>$64,316–$67,969 a year
+Full-time
+Monday to Friday</t>
+  </si>
+  <si>
+    <t>Posted 2 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/BH-Frontier-Solutions-Inc./jobs/Entry-Level-Engineer-d454b092952d5d84?fccid=50fb47fdfad023ff&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior QA Engineer</t>
+  </si>
+  <si>
+    <t>ShyftLabs</t>
+  </si>
+  <si>
+    <t>Hybrid remote in Toronto, ON</t>
+  </si>
+  <si>
+    <t>Posted 14 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=c636b64974c932b3&amp;fccid=2d1ea5cfea74cda1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>Red Label Vacations</t>
   </si>
   <si>
     <t>Full-time
-+1
+8 hour shift</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/More-Rewards/jobs/Automation-Engineer-07e32a42688feaba?fccid=b317bb58d1a96ebe&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Quality Assurance Test Engineer</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=5e5c9fd5a56050cd&amp;fccid=cfaf7b3d4f299f3a&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Software Development Engineer in Test (SDET) - Hybrid</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Mississauga, ON</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=60f939a7cb8e39fa&amp;fccid=5bcd1ef0a7f4fb99&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Data QA Engineer</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=ba1788772739e805&amp;fccid=0922b294f71581a6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Sr. DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Compest Solutions Inc</t>
+  </si>
+  <si>
+    <t>Fixed term contract
 Monday to Friday
 +2</t>
   </si>
   <si>
-    <t>https://ca.indeed.com/company/Kal--Polymers/jobs/Administrative-Assistant-150295265439c32d?fccid=51411b214b30cf67&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Project Engineer</t>
-  </si>
-  <si>
-    <t>VPC Group Inc.</t>
-  </si>
-  <si>
-    <t>North York, ON</t>
-  </si>
-  <si>
-    <t>Full-time
-+1
+    <t>https://ca.indeed.com/company/Compest-Solutions-Inc/jobs/Development-Operations-Engineer-c9da08e2d203434b?fccid=80bee7d465f5499d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Sr. Engineer (OAM)- REMOTE</t>
+  </si>
+  <si>
+    <t>Software International</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Posted 1 day ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=41d754c5e46ff5fc&amp;fccid=991677c8d1dc29b5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Software Developer Intern, BS, Fall 2023</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Posted 7 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=c146a932aa7114cc&amp;fccid=a5b4499d9e91a5c6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Software Engineer Intern</t>
+  </si>
+  <si>
+    <t>Afto Dynamo Technologies inc</t>
+  </si>
+  <si>
+    <t>From $17 an hour
+Internship / Co-op
+Monday to Friday</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/Afto-Dynamo-Technologies-inc/jobs/Software-Engineer-Intern-df810345480af0c0?fccid=416c2ec1d1618c60&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Junior Mechatronics Engineer</t>
+  </si>
+  <si>
+    <t>QBOT Technologies</t>
+  </si>
+  <si>
+    <t>Oakville, ON</t>
+  </si>
+  <si>
+    <t>$43,495–$49,062 a year
+Full-time
 Monday to Friday
-+1
-Engineering: 6 years
-Project management: 5 years</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0DPszDJ-tV_Zg1ZXaQGHk7WcKpSBlcVuQqIDIoclO6CcjiY4sI9CMIE0vWqzyJvrr70S7tptSb_tHdNBaxvXV8iXHFPZ8Oa1aau8xp-bIO1neS3TpY2CdSoQ16BwZMuoAzBYfZOFXDnrFTOxGCvwHLmkmmV_f_jZYnMMcj86QEvgVzQyaaoFB_nH7bEQZomu8i2j9_MbuPMRFBulgJdbJr5rf2M2ceoEIhqh3qh_EBQ2Fz-8RfbQahr08DHAwxXV3x4GgViX_0XTfVPVTu3gEG62nhsnD35GqLz7HhBV5gG45vRwo7MI0VHFFGsWzYxBnPnV5iqJ-rOd2VNxuy19FsqCiYL0O0pdBj1Lr2X0z6RoIylDv1yvpOMz-EM1nzitgLzjEXmTzJDEzIJBrlc4UzotDjj8-UHYwT6SCk3rkkusYQlwBg6cJ8fJJkkpzKoWLCwm6XuLwpCKDy4h38WwFPBlnm0AVJXivvtMMHlg8TwdSYVEFJoyhdxlI8iMiZwQHhwI75TIx5GHVtCUTfzApto&amp;xkcb=SoBK-_M3OgnRXxQSFx0MbzkdCdPP&amp;p=7&amp;fvj=1&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Sr. Accountant</t>
-  </si>
-  <si>
-    <t>Robert Half</t>
-  </si>
-  <si>
-    <t>Greater Toronto Area, ON</t>
-  </si>
-  <si>
-    <t>$80,000–$90,000 a year
-Permanent</t>
-  </si>
-  <si>
-    <t>Posted 7 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CkZrmoNIfNnv5K6heJNTgcHXgr0H7cYcF0-Q8gfPuoOeCj43g__u0O5YERm37wD4BxI_LpMvQGuCiGE7DgrUbqk5p-L8QMg_ZdfG1w3VCAYuQWZOU67D9c8hrHnNvMIy7j4LiK8FNHX-AxXUxIzNDuk-bYRUvzN5dsF9nC3llBJ8x_hw7I4ayKs9UoQp35WN8TdfHH8SizJPR6i7kDOsgvpjadU3p4GmNyLUGpYUgXT8-TrT8tESl8E9vpuY3bCRu3vGJo6X74PnlSumjy7JWfMZwFBVlX1HPCtsUX5OLI9cwdhXafOFeNrDhz4AcnP4kid8DN9hcdnEEgyU7Tht8g2aysnb-sFKR-ciMslIRlrsQnXx-zWkt6Jv085cp8PYLcGyQ2DCelJLzKj8__YBfCTUtXBdr88ZS5hLA07fMRojsx5_0Cq0Ucgv9rXwE32yoJlMHfLqXOcg84Sf0QWV3_sgRWRiReOm3n0j5vv-G_n2pr-NAclo7MekbdiDxoKoMdYgyCU8Rt6Zl7I9zpXvWgKDQSbQ018-jRuy7rwIIKN4E7u9UgVI8_MZKXX4vapuY=&amp;xkcb=SoCj-_M3OgnRXxQSFx0DbzkdCdPP&amp;p=8&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Practice Lead</t>
-  </si>
-  <si>
-    <t>Mier Recruitment</t>
-  </si>
-  <si>
-    <t>Remote in Toronto, ON</t>
-  </si>
-  <si>
-    <t>$150,000–$160,000 a year
-Full-time
-+1</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0Dgb76zrUgBBoUac4OqrBxcp3AF41zq8tIbFMi67wY-ws-iFi9SVjOWApxDz16RYLPj9ZEVymOrotpKYWG0qE2aCbfxY7d3raMWP9Xz7BKhnPcNe76oxFyfKxVSyKiPYtqbKXu5XcCx1DG9dgBgsMtJAb9jyFleyCPJ6IBed_1E9-Iixt9PAK9eTvhfgIBzaH5GItC7Dx-M8Y_diFdFmNTVbUGvaALxXRAHgPbOzgpR3oNIfM51iVHHLg8uOZbUmBWZXL9NjmV6aHytHkR-pp4w5kHvgBMhM_qzod1Nh-wc-POR2f3aEy4M6YVkvTXHrAujtcpWp305FhitB2zMV_EDziPCJ7ViQ6tWu1kFVuMWTJtQa7NuA_vHiemnMIBvrUgwF82xV_YKI7ybvSBsZSqlool-skY59t_JKel4GT5ZVzA0ICLTMrppSmC9CoL3onE0iFRera9O_MFwSvxsYeyT3n1DSb8CdfJDYblQtZV0VdCzV57qofUVxVd9J4X51z8BB9ut2JLGBy-sX23kD102cVQuyK6puuLw3iLCTYrw1MFnQZGq3wfRrYU561sOqHHpKKjAirsGvgQ8DhW8YlsL7W281cJrvUTYdqxC1JYWa66mx_jlkCW43z9CANLOPqyAyLct5SQ7z8dYmX2ITYV0CpmUd1JqqIRUgeMOfvTrze_PbF5vb20BJntPzbH5CAP0AD52bcLB0YCgO2qlxd1YvqbR7s7Oghsdp3skqJbrFZvLV53V_1lEgKZcwyh7soR5xPKAqvOlhrqMK7IcYhtRZwQtinsWXg6YQqf-B58Wov6CL0yfWkuAfvofZ0fgWIhr4B7cchInAWenmr67BbwwOxjUJ7z3MTKAJF5UhbbYQalhGfD550rzoVH53xDyoi_AXDU3KoBa3u5dxh8foGsU6wWEYYLGLPSLqMMGEXSwOy9I-9YdfXykyEvES_qnCekhl1-yE9ImDjjL9um7ddI6zt-cDOHAa_qwPic7O4G07nUbRjEswtctosXW6LoeZ5HhNwAa1bJ3bg==&amp;xkcb=SoAX-_M3OgnRXxQSFx0CbzkdCdPP&amp;p=9&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Customer Service Representative</t>
-  </si>
-  <si>
-    <t>De Havilland</t>
-  </si>
-  <si>
-    <t>Full-time
-Day shift
-+3</t>
-  </si>
-  <si>
-    <t>Posted 13 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/rc/clk?jk=987d9a2465d59f16&amp;fccid=827200617f347c97&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Warehouse Associate Full-Time - HOBBY DISTRIBUTOR</t>
-  </si>
-  <si>
-    <t>Lightspeed Global Hobby Distribution</t>
-  </si>
-  <si>
-    <t>$17.00–$19.50 an hour
-Full-time
-8 hour shift</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/company/Lightspeed-Global-Hobby-Distribution/jobs/Warehouse-Associate-e32f221248001104?fccid=a69454656acaa1ac&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Oracle EPM - Financial Consolidation and Close Cloud Service</t>
++2</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/QBOT-Technologies/jobs/Junior-Engineer-2f0763f58da2e740?fccid=784d399c8e0d1e57&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer in Test I - Python</t>
+  </si>
+  <si>
+    <t>Emburse</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=d5f285e98d2bac91&amp;fccid=2395dfa3326e983c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Quality Engineer, Legacy Modernization</t>
+  </si>
+  <si>
+    <t>CT Corporation</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=3730e4f2b3c39c59&amp;fccid=19c77cd1332e0d40&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>IDEMIA</t>
+  </si>
+  <si>
+    <t>Remote in Oakville, ON</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=a1463bf05f05036d&amp;fccid=56d1ac791824f1a6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=c796eff0acac1694&amp;fccid=7136762d065a5ad7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Applications Engineer</t>
+  </si>
+  <si>
+    <t>Ontario Teachers' Pension Plan</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=54b20695dc7eda3c&amp;fccid=17bf781939cc1c3e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>IMG Logistics Inc</t>
+  </si>
+  <si>
+    <t>$105,000 a year
+Permanent
+Monday to Friday
++4</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/IMG-Logistics-Inc/jobs/Senior-Mechanical-Engineer-d02545ab68b35d61?fccid=b084d97982c60eaa&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Software Engineer, Fusion Platform (Browser)</t>
+  </si>
+  <si>
+    <t>Posted 11 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=a6132cf271131d01&amp;fccid=7136762d065a5ad7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Intermediate QA Automation Developer</t>
+  </si>
+  <si>
+    <t>Mitacs</t>
+  </si>
+  <si>
+    <t>Posted 6 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=124886dd700f31cf&amp;fccid=5a5032a70184d600&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Staff ML Engineer (8627)</t>
+  </si>
+  <si>
+    <t>Extreme Networks</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=027edc58cdcfb258&amp;fccid=3c1ccc4616711149&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Sr. Mobile Automation Engineer</t>
   </si>
   <si>
     <t>Cognizant Technology Solutions</t>
-  </si>
-  <si>
-    <t>Toronto, ON</t>
   </si>
   <si>
     <t>Full-time
 Day shift</t>
   </si>
   <si>
-    <t>Posted 10 days ago</t>
-  </si>
-  <si>
-    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0CtvmMS2gh6TFcPtfg_dSoYlEhoKWvWvhdJKzal6LE4pcAtPAqzcHUiEMqaPM44C4jf2C5Q7HIkOxn5hxe-PcOe_17JwBjRPcEE7eNHHN0sqhLp_720gASMQL36dBTBE_Byi2VJkZVezktqywWnqxh6eRR2DPU8rnCrA5jN-P_x3eSqtd1Y4S43tXL_DJ0AqefgMtDTkLO3hh-zTn268RArHiQAiwOcx4uI2c-Z-x_hAEcNTdGeGBq8i4vuRsNDIY4N16OYd0Givok9XfT8K8Hg16ft1q3Ap3Flheos4F1Fu2pGEj0eKfy4AsJKQVVL8i2Gcg7XTwiLWkeyrXcbW6IfeMFKcr7ggDdyMDlT-zOvIpfiiJ0BZ7FoHZkIdPGtDNINYhUQw0edjC1HkSjBdsXd6Mx4t6uy3imryhWw9mUUzPh20BVhMsIcNHtPL_vj86FA5OVOrsRcbX8FldqVglr-XXu00TZ_JXsRstjtzgvnXZwvqEaW-4-8lVfRUz-wptBQMJ-W8O1m7Q==&amp;xkcb=SoCw-_M3OgnRXxQSFx0HbzkdCdPP&amp;p=12&amp;fvj=0&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>Order Picker/General Warehouse</t>
-  </si>
-  <si>
-    <t>Nella Cutlery &amp; Food Equipment Inc.</t>
-  </si>
-  <si>
-    <t>$18–$20 an hour
+    <t>https://ca.indeed.com/rc/clk?jk=6f61b434ddb8fa08&amp;fccid=2df6a1e69a70a1e7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Analyst, Quality Assurance</t>
+  </si>
+  <si>
+    <t>FCT</t>
+  </si>
+  <si>
+    <t>Hybrid remote in Oakville, ON</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=02ad4a54e33fd410&amp;fccid=1774d8a2c0dcb2e7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Software Developer Intern, MS, Fall 2023</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=b63c7c3b0650db32&amp;fccid=a5b4499d9e91a5c6&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Automation Quality Assurance Engineer</t>
+  </si>
+  <si>
+    <t>Aviso Wealth</t>
+  </si>
+  <si>
+    <t>Employer Active 2 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=607ffbfa0628ee67&amp;fccid=ecf6f847bf757659&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Software Engineering Lead</t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=1ecc6004ac9783a3&amp;fccid=810178099fb1fcbc&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Sr. Hardware Engineer</t>
+  </si>
+  <si>
+    <t>InVision Staffing</t>
+  </si>
+  <si>
+    <t>$115,000–$130,000 a year
 Full-time
 +1
 Monday to Friday
 +2</t>
   </si>
   <si>
-    <t>https://ca.indeed.com/company/Nella-Cutlery-&amp;-Food-Equipment-Inc./jobs/Order-Picker-75a63caad6b39eb5?fccid=d53ffb08e43d5ec1&amp;vjs=3</t>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BcfpqcYaRZC1w4ty6f80loD7bCf4BUfAUaHRk2o2bxV1n7XH6o65SYhM098bai_Njy5kGQNuWP7tnBqHVKU-c6XsJlnX-Ldd9GBk3iAPWKWo-QsXbE9bMWpbv6ziRH1olux4gPt80-Jro1uCDRoQ241x2VlHUUhmWmfDHa7KynexKl6UYO5PygWmOCdTmjH7cgH7k0-s65bgD4PGS383GaT5yiZLBdSr4CigPzC5szi5fZYeSbxB9S8vWklljq9nP3XIIyD_s_iw66amPBdYIiGH4sP5mE63Q_L-CtxrssbNsAfT77zR6YKM7U-h1ehyRGok8JKwKmb2NPAB1q4gqph9r8fibN-ML0PxE1OtcY8rrUKtkpuIA1Md73GiDxeiY_RPWR9De6eDUd95bzYKkx1hQ3Nzsb3oqg4pDoWat_QGoTZ7NB4hF-t4IB3I9tY0ECTjIu11DJuazHw7icyk7wZJMPddB_4d021r3SNqWuiuPSE32c8OQWPUJ6oCgbc_uyB1YGx47iZLyeOsoN0_4e2lOepfFjuPzXyvJdOJbJ7WNaErI-szDv&amp;xkcb=SoCS-_M3OjSW67QgXh0GbzkdCdPP&amp;p=13&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (Contract)</t>
+  </si>
+  <si>
+    <t>OMERS</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0AzSn2Srz3juBjm3uZH_ze3C3LrHWmDf4-FYXsVxBdLrI_n1UV5xXkwFVsT3Ff5HkjUb_BdY0_9IuUhWl_VjCHVMq435GWwFM7QGulZxxo_hxjxesQUrSO0VYuPlg8MIKr96tN6R72i7vzX7aBndZxcYSieSUIf1-A7t6S1F03qfka2kayWkwyUT0AwciWr-a_UusD0Y9CBPH4wUZf5jkZOaz29D3TzrmNL55r2oz31iwZGqpy3WgYuHegZ0g7B6qBytvWN8EBfLQQkFbj6M3vl4KuAucphQ2Ec6esSLml4oVrRf98O3NV-HuiaWkWLR_ZQDm70-bNCmpd8Mjs8Pm7U49OkwXY9mNQGjO6n7q74tAdrLeYeJRBXBeNNSnGevm3qbjfPlaGb5loFB-zX24Z5-P1CikhhTJV3bexkt96xHvtOFtYXRBKdCoZoSbLONGJyFS9nLg1e-9N9C99o7HSBvwI1gvcQK-ipByMxvlUy-ZC1pFi-Ud1PyNF1tviAvMiQ2TGjhg7wm_iwSFZ4212Kd9jamgR3ibNQlAQWWgxsKSM_nHe-h2y57Xzb0GaBRirPZAX8FwwwJqChvT9uC4N6-82NGVjcJbaNeTAjwXA6q94x-HMAY92oHiM0VFBDhzti4ttRWi087ozolcJjdIX-aGuixVyk08aDjXi7IPd6Sw==&amp;xkcb=SoBZ-_M3OjSWXsQ3pZ0LbzkdCdPP&amp;p=0&amp;fvj=0&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>Thomson Reuters</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=0b02d906818f0fa7&amp;fccid=f4c6ed63cbcfdc0d&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Principal Engineer (OAM)</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=04d8a22afd17865d&amp;fccid=991677c8d1dc29b5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Lead Quality Engineer, Data Engineering</t>
+  </si>
+  <si>
+    <t>CPP Investments</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=df2d1ee732591940&amp;fccid=8e6d7fd4989738e8&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Full Stack</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=ff021caae9158640&amp;fccid=7136762d065a5ad7&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Automation Engineer - Bilingual (English &amp; French)</t>
+  </si>
+  <si>
+    <t>Zenith System Solutions Inc.</t>
+  </si>
+  <si>
+    <t>$40–$45 an hour
+Full-time
++2
+8 hour shift</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/Zenith-System-Solutions/jobs/Automation-Engineer-a1d091264dae6a60?fccid=f04d06e74c0d3650&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Nuclear Fuel Handling Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>SNC-Lavalin</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=a4850f1cc6973838&amp;fccid=59b04a51f1164f7e&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>#9907 - DevOps Engineer</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=31ae1dc0cd8d0fc0&amp;fccid=3d13714d09637170&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Functional Safety Engineer</t>
+  </si>
+  <si>
+    <t>DBSI Services</t>
+  </si>
+  <si>
+    <t>$100,000–$115,000 a year
+Full-time
++1
+Monday to Friday
++1</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/company/DBSI-Services/jobs/Safety-Engineer-73d38c6c7c59570c?fccid=135f90bfe466c67c&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Platform Security Engineer (remote)</t>
+  </si>
+  <si>
+    <t>Employer Active 5 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=20b4b6389f8e076a&amp;fccid=991677c8d1dc29b5&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>DevOps Engineer– Rates Data Intelligence (Hybrid)</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=16e9c5baaa611aef&amp;fccid=5bcd1ef0a7f4fb99&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Senior Electronics Design Engineer</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/pagead/clk?mo=r&amp;ad=-6NYlbfkN0BcfpqcYaRZC1w4ty6f80loD7bCf4BUfAUaHRk2o2bxV1n7XH6o65SYhM098bai_NguKd92KYqn3_C8v_E5PDunaTHLAF3N0sVe_s7Oxm2iGdQmEsfCVZzsO9xw45J2kUzBAl0ARTJdeNNqO99osflYpu_GLO85Og7kKOwaDA8jEeYMybhHECKGoVoYQqhaBXYn4y1zRbEtV2wgqosdxduUYD4bTBO4yEVaWAQrvND4ysDLTMTu1fdAXceDBkarhstbACZKz9cIyWsmj1_g97Dr-d5EVGHQ9DyTW6z0d7prstsdYWxxPmLCpKgNXcQ1y-d2s-h5RluqVGvZqO70F0Afz4PcwYMF8B9xoneJkISJ1AsPgVHw9ksnk9OEL24-9tiwCSYf5viRVd_1Tf_MCQz_Rj2CM3E41U8c5XjThwNmgSE4xRLYcY-4ELRsOEQxoW75iEAIAEzhV5zTvQ6aKOUt-55vY9tRdG7DbedICfyx44ceqFPSO7TokuDmzDV7220oVyPIXVQtd-AEgqilbQ1UYmENukEjzqVB3ihMNAtWj8eusTm090e5fvGhgvIYNwmzHkhjkkqQBg==&amp;xkcb=SoAt-_M3OjSWXsQ3pZ0HbzkdCdPP&amp;p=12&amp;fvj=1&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>Network DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Hybrid remote in Brampton, ON</t>
+  </si>
+  <si>
+    <t>Full-time
+On call</t>
+  </si>
+  <si>
+    <t>Posted
+Posted 9 days ago</t>
+  </si>
+  <si>
+    <t>https://ca.indeed.com/rc/clk?jk=208d16aa3983647b&amp;fccid=19c77cd1332e0d40&amp;vjs=3</t>
   </si>
 </sst>
 </file>
@@ -323,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -397,245 +696,897 @@
         <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B18" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="C18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="F18" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="F20" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
